--- a/aifreeteam-website/素材準備工作表.xlsx
+++ b/aifreeteam-website/素材準備工作表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rathe\PROJECT\Public-Pics\aifreeteam-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F208445-A31E-44E4-8319-FFC83964CFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB281C69-AEEE-4B93-8C95-BA964C02D28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>檔案名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,11 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>照片有準備，且連結
-https://youtu.be/QzVqXAwbnn0?si=VSIC2RPUHW44cvY-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>繁體中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +211,25 @@
   </si>
   <si>
     <t>ㄧ張封面、ㄧ張正方形、兩張內文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際課程準備的內容照片有 11 張</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片有了，評估要不要放上影片連結
+以及，直接放上行銷網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片有準備，且有連結
+https://youtu.be/QzVqXAwbnn0?si=VSIC2RPUHW44cvY-
+評估要不要直接放上連結</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片最後有 6 張</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +282,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -304,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +362,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,22 +794,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="176" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="XFD3" sqref="XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="13" customWidth="1"/>
     <col min="5" max="16383" width="9" style="2" hidden="1"/>
     <col min="16384" max="16384" width="43.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4 16384:16384" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4 16384:16384" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -793,7 +826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4 16384:16384" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -803,9 +836,14 @@
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="XFD2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4 16384:16384" s="4" customFormat="1" ht="28.8">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -815,9 +853,14 @@
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="XFD3" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4 16384:16384" s="4" customFormat="1" ht="28.8">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -827,21 +870,31 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="XFD4" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4 16384:16384" s="15" customFormat="1" ht="43.2">
+      <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="XFD5" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4 16384:16384" s="4" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -849,16 +902,16 @@
         <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="XFD6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="XFD6" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4 16384:16384" s="4" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -872,7 +925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4 16384:16384" s="4" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -886,7 +939,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4 16384:16384" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -900,7 +953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4 16384:16384" s="4" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -914,7 +967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4 16384:16384" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -922,13 +975,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4 16384:16384" s="4" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -942,7 +995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4 16384:16384" s="4" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -956,7 +1009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4 16384:16384" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4 16384:16384" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -970,7 +1023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4 16384:16384" s="3" customFormat="1">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -984,7 +1037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4 16384:16384" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4 16384:16384" s="4" customFormat="1" ht="72">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -998,10 +1051,10 @@
         <v>42</v>
       </c>
       <c r="XFD16" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1068,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="4" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1051,14 +1104,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30005E45-D12E-439C-ADE4-D30E03A54E2E}">
-  <dimension ref="A1:XFD8"/>
+  <dimension ref="A1:XFC8"/>
   <sheetViews>
     <sheetView zoomScale="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.75" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="6" customWidth="1"/>
@@ -1068,7 +1121,7 @@
     <col min="16384" max="16384" width="105.25" style="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="10" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1082,24 +1135,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="B2" s="11"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="8"/>
       <c r="B3" s="12"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="9" customFormat="1" ht="116.4" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
@@ -1109,7 +1162,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" s="9" customFormat="1" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="9" customFormat="1" ht="97.8" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -1119,7 +1172,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="9" customFormat="1" ht="28.8">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1182,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" s="9" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="9" customFormat="1" ht="111.6" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
